--- a/Lab_2/Lab2/ModelData.xlsx
+++ b/Lab_2/Lab2/ModelData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,22 +551,22 @@
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="J2" t="n">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="K2" t="n">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="L2" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M2" t="n">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
         <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.883113203944814</v>
+        <v>1.879887793315171</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1377779869264642</v>
+        <v>0.08177820577745205</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1826666666666667</v>
+        <v>0.8099133523294829</v>
       </c>
     </row>
     <row r="3">
@@ -612,19 +612,19 @@
         <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -635,16 +635,16 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1813785821353428</v>
+        <v>0.3656184481470698</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.00303030303030303</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1066666666666667</v>
+        <v>0.3951894435019152</v>
       </c>
     </row>
     <row r="4">
@@ -673,22 +673,22 @@
         <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="J4" t="n">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="K4" t="n">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -699,13 +699,13 @@
         <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.754331577115946</v>
+        <v>1.567129730240244</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2025780189959294</v>
+        <v>0.1885964912280702</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1096666666666667</v>
+        <v>0.5665444158650742</v>
       </c>
     </row>
     <row r="5">
@@ -734,19 +734,19 @@
         <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="K5" t="n">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="L5" t="n">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M5" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -760,13 +760,13 @@
         <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.088930947370339</v>
+        <v>2.339794136951269</v>
       </c>
       <c r="R5" t="n">
-        <v>0.2089679934921036</v>
+        <v>0.2643199618809375</v>
       </c>
       <c r="S5" t="n">
-        <v>0.133</v>
+        <v>0.7500702688191913</v>
       </c>
     </row>
     <row r="6">
@@ -795,22 +795,22 @@
         <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J6" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="K6" t="n">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="L6" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="N6" t="n">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -821,13 +821,13 @@
         <v>5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.161823491988393</v>
+        <v>2.458972400589845</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1717412730239372</v>
+        <v>0.2152688461571513</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1633333333333333</v>
+        <v>0.8509005058927724</v>
       </c>
     </row>
     <row r="7">
@@ -856,22 +856,22 @@
         <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="J7" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="K7" t="n">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="L7" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M7" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -882,13 +882,13 @@
         <v>10</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.634290537350069</v>
+        <v>2.54298546433021</v>
       </c>
       <c r="R7" t="n">
-        <v>0.05628449723289084</v>
+        <v>0.09107906122831495</v>
       </c>
       <c r="S7" t="n">
-        <v>0.2053333333333334</v>
+        <v>0.8097513843036476</v>
       </c>
     </row>
     <row r="8">
@@ -917,22 +917,22 @@
         <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J8" t="n">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="K8" t="n">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M8" t="n">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -943,13 +943,13 @@
         <v>10</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.77719263869361</v>
+        <v>2.539960721592423</v>
       </c>
       <c r="R8" t="n">
-        <v>0.04738840312931431</v>
+        <v>0.1028903789495073</v>
       </c>
       <c r="S8" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.8168261228652623</v>
       </c>
     </row>
     <row r="9">
@@ -978,22 +978,22 @@
         <v>10</v>
       </c>
       <c r="I9" t="n">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="J9" t="n">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="K9" t="n">
         <v>193</v>
       </c>
       <c r="L9" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M9" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1001,16 +1001,16 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.83579859867393</v>
+        <v>1.731021840772933</v>
       </c>
       <c r="R9" t="n">
-        <v>0.05822325299989917</v>
+        <v>0.1049326994963775</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1986666666666667</v>
+        <v>0.7871665176896318</v>
       </c>
     </row>
     <row r="10">
@@ -1018,7 +1018,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1030,31 +1030,31 @@
         <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>162</v>
+        <v>242</v>
       </c>
       <c r="J10" t="n">
-        <v>77</v>
+        <v>1820</v>
       </c>
       <c r="K10" t="n">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="L10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M10" t="n">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="N10" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1062,16 +1062,16 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.2388937184961037</v>
+        <v>2.600859919845873</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1984892192278039</v>
+        <v>0.3341762879640155</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1406666666666667</v>
+        <v>0.8594518163171908</v>
       </c>
     </row>
     <row r="11">
@@ -1079,10 +1079,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="D11" t="n">
         <v>4</v>
@@ -1091,31 +1091,31 @@
         <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="J11" t="n">
-        <v>719</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="L11" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="M11" t="n">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="N11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1123,16 +1123,16 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4113953989185983</v>
+        <v>1.137913478184275</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3980849926655876</v>
+        <v>0.05696885283956687</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1966666666666667</v>
+        <v>0.5752325006398995</v>
       </c>
     </row>
     <row r="12">
@@ -1143,40 +1143,40 @@
         <v>4</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="K12" t="n">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="L12" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="N12" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1184,16 +1184,16 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1875445073523493</v>
+        <v>1.368993436971652</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1589096744461835</v>
+        <v>0.09917910447761195</v>
       </c>
       <c r="S12" t="n">
-        <v>0.176</v>
+        <v>0.6034649681022618</v>
       </c>
     </row>
     <row r="13">
@@ -1207,37 +1207,37 @@
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>169</v>
+        <v>210</v>
       </c>
       <c r="J13" t="n">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="M13" t="n">
-        <v>138</v>
+        <v>195</v>
       </c>
       <c r="N13" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1245,16 +1245,16 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2064756281762169</v>
+        <v>0.9104887364211763</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1724777369232704</v>
+        <v>0.05778954155213954</v>
       </c>
       <c r="S13" t="n">
-        <v>0.1583333333333334</v>
+        <v>0.5253976049866071</v>
       </c>
     </row>
     <row r="14">
@@ -1271,34 +1271,34 @@
         <v>4</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J14" t="n">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="K14" t="n">
-        <v>132</v>
+        <v>165</v>
       </c>
       <c r="L14" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1306,16 +1306,16 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.2064110781836922</v>
+        <v>0.6864367810074143</v>
       </c>
       <c r="R14" t="n">
-        <v>0.1977176450246391</v>
+        <v>0.1310209389553334</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1453333333333333</v>
+        <v>0.6761030046818108</v>
       </c>
     </row>
     <row r="15">
@@ -1323,7 +1323,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
@@ -1338,28 +1338,28 @@
         <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="J15" t="n">
-        <v>1737</v>
+        <v>21</v>
       </c>
       <c r="K15" t="n">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="L15" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M15" t="n">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="N15" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1370,13 +1370,13 @@
         <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>3.030807522774889</v>
+        <v>0.9748727351658418</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3818833703212885</v>
+        <v>0.1174942214970768</v>
       </c>
       <c r="S15" t="n">
-        <v>0.225</v>
+        <v>0.7138978768629074</v>
       </c>
     </row>
     <row r="16">
@@ -1387,7 +1387,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>4</v>
@@ -1402,25 +1402,25 @@
         <v>5</v>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K16" t="n">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="L16" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="M16" t="n">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1431,318 +1431,13 @@
         <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.058185645488457</v>
+        <v>1.052317870515815</v>
       </c>
       <c r="R16" t="n">
-        <v>0.05367493298527781</v>
+        <v>0.1246011407221777</v>
       </c>
       <c r="S16" t="n">
-        <v>0.2116666666666667</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="n">
-        <v>4</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>223</v>
-      </c>
-      <c r="J17" t="n">
-        <v>38</v>
-      </c>
-      <c r="K17" t="n">
-        <v>223</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>202</v>
-      </c>
-      <c r="N17" t="n">
-        <v>15</v>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>exp</t>
-        </is>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.499706501403761</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.07157276456497814</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.216</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
-      </c>
-      <c r="G18" t="n">
-        <v>5</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>212</v>
-      </c>
-      <c r="J18" t="n">
-        <v>13</v>
-      </c>
-      <c r="K18" t="n">
-        <v>193</v>
-      </c>
-      <c r="L18" t="n">
-        <v>18</v>
-      </c>
-      <c r="M18" t="n">
-        <v>193</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>exp</t>
-        </is>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.042629918494515</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0.04769527821660523</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.1993333333333334</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>5</v>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-      <c r="I19" t="n">
-        <v>164</v>
-      </c>
-      <c r="J19" t="n">
-        <v>93</v>
-      </c>
-      <c r="K19" t="n">
-        <v>159</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4</v>
-      </c>
-      <c r="M19" t="n">
-        <v>158</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1</v>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>exp</t>
-        </is>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.6759871929197517</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0.1308989632522899</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.1603333333333333</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>226</v>
-      </c>
-      <c r="J20" t="n">
-        <v>23</v>
-      </c>
-      <c r="K20" t="n">
-        <v>162</v>
-      </c>
-      <c r="L20" t="n">
-        <v>64</v>
-      </c>
-      <c r="M20" t="n">
-        <v>159</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>exp</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.009207016033343</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0.1293258929560195</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0.1823333333333333</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="n">
-        <v>4</v>
-      </c>
-      <c r="D21" t="n">
-        <v>4</v>
-      </c>
-      <c r="E21" t="n">
-        <v>4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
-      </c>
-      <c r="G21" t="n">
-        <v>5</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>218</v>
-      </c>
-      <c r="J21" t="n">
-        <v>31</v>
-      </c>
-      <c r="K21" t="n">
-        <v>197</v>
-      </c>
-      <c r="L21" t="n">
-        <v>21</v>
-      </c>
-      <c r="M21" t="n">
-        <v>152</v>
-      </c>
-      <c r="N21" t="n">
-        <v>45</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>exp</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.334098678753456</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0.1497515543787719</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0.189</v>
+        <v>0.7260049013291083</v>
       </c>
     </row>
   </sheetData>
